--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.329663666666667</v>
+        <v>1.432281</v>
       </c>
       <c r="N2">
-        <v>3.988991</v>
+        <v>4.296843</v>
       </c>
       <c r="O2">
-        <v>0.4294794544381996</v>
+        <v>0.4004435514722966</v>
       </c>
       <c r="P2">
-        <v>0.4294794544381995</v>
+        <v>0.4004435514722965</v>
       </c>
       <c r="Q2">
-        <v>68.80754534152979</v>
+        <v>69.420738903752</v>
       </c>
       <c r="R2">
-        <v>619.267908073768</v>
+        <v>624.786650133768</v>
       </c>
       <c r="S2">
-        <v>0.0630661600608161</v>
+        <v>0.06224618696079821</v>
       </c>
       <c r="T2">
-        <v>0.0630661600608161</v>
+        <v>0.0622461869607982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H3">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.005904</v>
       </c>
       <c r="O3">
-        <v>0.3236342247986024</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="P3">
-        <v>0.3236342247986023</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="Q3">
-        <v>51.84992289335467</v>
+        <v>48.56404498692267</v>
       </c>
       <c r="R3">
-        <v>466.649306040192</v>
+        <v>437.0764048823041</v>
       </c>
       <c r="S3">
-        <v>0.04752350225694853</v>
+        <v>0.04354500789770796</v>
       </c>
       <c r="T3">
-        <v>0.04752350225694853</v>
+        <v>0.04354500789770796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H4">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1606046666666666</v>
+        <v>0.3795333333333333</v>
       </c>
       <c r="N4">
-        <v>0.481814</v>
+        <v>1.1386</v>
       </c>
       <c r="O4">
-        <v>0.0518750766448675</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="P4">
-        <v>0.05187507664486749</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="Q4">
-        <v>8.310983567319111</v>
+        <v>18.39547158595556</v>
       </c>
       <c r="R4">
-        <v>74.798852105872</v>
+        <v>165.5592442736</v>
       </c>
       <c r="S4">
-        <v>0.007617504988991463</v>
+        <v>0.01649432117337423</v>
       </c>
       <c r="T4">
-        <v>0.007617504988991463</v>
+        <v>0.01649432117337423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H5">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I5">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J5">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.287232</v>
+        <v>0.4135746666666666</v>
       </c>
       <c r="N5">
-        <v>0.861696</v>
+        <v>1.240724</v>
       </c>
       <c r="O5">
-        <v>0.09277552342724733</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="P5">
-        <v>0.09277552342724732</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="Q5">
-        <v>14.863705280512</v>
+        <v>20.04540935184711</v>
       </c>
       <c r="R5">
-        <v>133.773347524608</v>
+        <v>180.408684166624</v>
       </c>
       <c r="S5">
-        <v>0.01362345963171263</v>
+        <v>0.01797373980635304</v>
       </c>
       <c r="T5">
-        <v>0.01362345963171263</v>
+        <v>0.01797373980635304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H6">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I6">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J6">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3165206666666667</v>
+        <v>0.3493793333333333</v>
       </c>
       <c r="N6">
-        <v>0.949562</v>
+        <v>1.048138</v>
       </c>
       <c r="O6">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="P6">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="Q6">
-        <v>16.37933762437511</v>
+        <v>16.93394765252089</v>
       </c>
       <c r="R6">
-        <v>147.414038619376</v>
+        <v>152.405528872688</v>
       </c>
       <c r="S6">
-        <v>0.01501262576919042</v>
+        <v>0.01518384402425621</v>
       </c>
       <c r="T6">
-        <v>0.01501262576919042</v>
+        <v>0.01518384402425621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>193.575878</v>
       </c>
       <c r="I7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.329663666666667</v>
+        <v>1.432281</v>
       </c>
       <c r="N7">
-        <v>3.988991</v>
+        <v>4.296843</v>
       </c>
       <c r="O7">
-        <v>0.4294794544381996</v>
+        <v>0.4004435514722966</v>
       </c>
       <c r="P7">
-        <v>0.4294794544381995</v>
+        <v>0.4004435514722965</v>
       </c>
       <c r="Q7">
-        <v>85.79693723989978</v>
+        <v>92.41835070590598</v>
       </c>
       <c r="R7">
-        <v>772.1724351590981</v>
+        <v>831.765156353154</v>
       </c>
       <c r="S7">
-        <v>0.07863793643330998</v>
+        <v>0.08286702255682162</v>
       </c>
       <c r="T7">
-        <v>0.07863793643330998</v>
+        <v>0.0828670225568216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>193.575878</v>
       </c>
       <c r="I8">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J8">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.005904</v>
       </c>
       <c r="O8">
-        <v>0.3236342247986024</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="P8">
-        <v>0.3236342247986023</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="Q8">
         <v>64.65227844263465</v>
@@ -948,10 +948,10 @@
         <v>581.870505983712</v>
       </c>
       <c r="S8">
-        <v>0.05925761368642651</v>
+        <v>0.05797054129546746</v>
       </c>
       <c r="T8">
-        <v>0.05925761368642651</v>
+        <v>0.05797054129546746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>193.575878</v>
       </c>
       <c r="I9">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J9">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1606046666666666</v>
+        <v>0.3795333333333333</v>
       </c>
       <c r="N9">
-        <v>0.481814</v>
+        <v>1.1386</v>
       </c>
       <c r="O9">
-        <v>0.0518750766448675</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="P9">
-        <v>0.05187507664486749</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="Q9">
-        <v>10.36306312029911</v>
+        <v>24.48949941008889</v>
       </c>
       <c r="R9">
-        <v>93.26756808269199</v>
+        <v>220.4054946908</v>
       </c>
       <c r="S9">
-        <v>0.00949835652792368</v>
+        <v>0.02195853836949526</v>
       </c>
       <c r="T9">
-        <v>0.009498356527923682</v>
+        <v>0.02195853836949525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>193.575878</v>
       </c>
       <c r="I10">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J10">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.287232</v>
+        <v>0.4135746666666666</v>
       </c>
       <c r="N10">
-        <v>0.861696</v>
+        <v>1.240724</v>
       </c>
       <c r="O10">
-        <v>0.09277552342724733</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="P10">
-        <v>0.09277552342724732</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="Q10">
-        <v>18.533728863232</v>
+        <v>26.68602640618577</v>
       </c>
       <c r="R10">
-        <v>166.803559769088</v>
+        <v>240.174237655672</v>
       </c>
       <c r="S10">
-        <v>0.01698725198247814</v>
+        <v>0.0239280568768256</v>
       </c>
       <c r="T10">
-        <v>0.01698725198247814</v>
+        <v>0.0239280568768256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>193.575878</v>
       </c>
       <c r="I11">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J11">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3165206666666667</v>
+        <v>0.3493793333333333</v>
       </c>
       <c r="N11">
-        <v>0.949562</v>
+        <v>1.048138</v>
       </c>
       <c r="O11">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="P11">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="Q11">
-        <v>20.42358865171511</v>
+        <v>22.54380373501822</v>
       </c>
       <c r="R11">
-        <v>183.812297865436</v>
+        <v>202.894233615164</v>
       </c>
       <c r="S11">
-        <v>0.01871941957138702</v>
+        <v>0.0202139280603601</v>
       </c>
       <c r="T11">
-        <v>0.01871941957138702</v>
+        <v>0.0202139280603601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H12">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I12">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J12">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.329663666666667</v>
+        <v>1.432281</v>
       </c>
       <c r="N12">
-        <v>3.988991</v>
+        <v>4.296843</v>
       </c>
       <c r="O12">
-        <v>0.4294794544381996</v>
+        <v>0.4004435514722966</v>
       </c>
       <c r="P12">
-        <v>0.4294794544381995</v>
+        <v>0.4004435514722965</v>
       </c>
       <c r="Q12">
-        <v>135.6779821372492</v>
+        <v>108.10719011597</v>
       </c>
       <c r="R12">
-        <v>1221.101839235243</v>
+        <v>972.9647110437301</v>
       </c>
       <c r="S12">
-        <v>0.1243568462691808</v>
+        <v>0.0969344388151064</v>
       </c>
       <c r="T12">
-        <v>0.1243568462691808</v>
+        <v>0.09693443881510638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H13">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I13">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J13">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.005904</v>
       </c>
       <c r="O13">
-        <v>0.3236342247986024</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="P13">
-        <v>0.3236342247986023</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="Q13">
-        <v>102.2401377236213</v>
+        <v>75.62757941082667</v>
       </c>
       <c r="R13">
-        <v>920.161239512592</v>
+        <v>680.64821469744</v>
       </c>
       <c r="S13">
-        <v>0.09370909626718027</v>
+        <v>0.06781155778139522</v>
       </c>
       <c r="T13">
-        <v>0.09370909626718027</v>
+        <v>0.06781155778139522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H14">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I14">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J14">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1606046666666666</v>
+        <v>0.3795333333333333</v>
       </c>
       <c r="N14">
-        <v>0.481814</v>
+        <v>1.1386</v>
       </c>
       <c r="O14">
-        <v>0.0518750766448675</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="P14">
-        <v>0.05187507664486749</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="Q14">
-        <v>16.38799167144689</v>
+        <v>28.64681038288889</v>
       </c>
       <c r="R14">
-        <v>147.491925043022</v>
+        <v>257.821293446</v>
       </c>
       <c r="S14">
-        <v>0.01502055771204775</v>
+        <v>0.02568619612931637</v>
       </c>
       <c r="T14">
-        <v>0.01502055771204775</v>
+        <v>0.02568619612931637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H15">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I15">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J15">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.287232</v>
+        <v>0.4135746666666666</v>
       </c>
       <c r="N15">
-        <v>0.861696</v>
+        <v>1.240724</v>
       </c>
       <c r="O15">
-        <v>0.09277552342724733</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="P15">
-        <v>0.09277552342724732</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="Q15">
-        <v>29.308959206912</v>
+        <v>31.21621742973778</v>
       </c>
       <c r="R15">
-        <v>263.780632862208</v>
+        <v>280.94595686764</v>
       </c>
       <c r="S15">
-        <v>0.02686338399930409</v>
+        <v>0.02799005797150002</v>
       </c>
       <c r="T15">
-        <v>0.02686338399930409</v>
+        <v>0.02799005797150002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H16">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I16">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J16">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3165206666666667</v>
+        <v>0.3493793333333333</v>
       </c>
       <c r="N16">
-        <v>0.949562</v>
+        <v>1.048138</v>
       </c>
       <c r="O16">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="P16">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="Q16">
-        <v>32.2975549642029</v>
+        <v>26.37081551124222</v>
       </c>
       <c r="R16">
-        <v>290.677994677826</v>
+        <v>237.33733960118</v>
       </c>
       <c r="S16">
-        <v>0.0296026076912823</v>
+        <v>0.0236454226581674</v>
       </c>
       <c r="T16">
-        <v>0.0296026076912823</v>
+        <v>0.0236454226581674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H17">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I17">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J17">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.329663666666667</v>
+        <v>1.432281</v>
       </c>
       <c r="N17">
-        <v>3.988991</v>
+        <v>4.296843</v>
       </c>
       <c r="O17">
-        <v>0.4294794544381996</v>
+        <v>0.4004435514722966</v>
       </c>
       <c r="P17">
-        <v>0.4294794544381995</v>
+        <v>0.4004435514722965</v>
       </c>
       <c r="Q17">
-        <v>66.00506331529456</v>
+        <v>73.31845340917899</v>
       </c>
       <c r="R17">
-        <v>594.0455698376511</v>
+        <v>659.866080682611</v>
       </c>
       <c r="S17">
-        <v>0.06049752054378577</v>
+        <v>0.06574107724367174</v>
       </c>
       <c r="T17">
-        <v>0.06049752054378576</v>
+        <v>0.06574107724367173</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H18">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I18">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J18">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.005904</v>
       </c>
       <c r="O18">
-        <v>0.3236342247986024</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="P18">
-        <v>0.3236342247986023</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="Q18">
-        <v>49.73811268054934</v>
+        <v>51.29073423824533</v>
       </c>
       <c r="R18">
-        <v>447.643014124944</v>
+        <v>461.616608144208</v>
       </c>
       <c r="S18">
-        <v>0.04558790405710311</v>
+        <v>0.04598989701300742</v>
       </c>
       <c r="T18">
-        <v>0.04558790405710311</v>
+        <v>0.04598989701300742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H19">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I19">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J19">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1606046666666666</v>
+        <v>0.3795333333333333</v>
       </c>
       <c r="N19">
-        <v>0.481814</v>
+        <v>1.1386</v>
       </c>
       <c r="O19">
-        <v>0.0518750766448675</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="P19">
-        <v>0.05187507664486749</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="Q19">
-        <v>7.972483160828222</v>
+        <v>19.42830842357777</v>
       </c>
       <c r="R19">
-        <v>71.752348447454</v>
+        <v>174.8547758122</v>
       </c>
       <c r="S19">
-        <v>0.007307249468169667</v>
+        <v>0.01742041553523009</v>
       </c>
       <c r="T19">
-        <v>0.007307249468169667</v>
+        <v>0.01742041553523008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H20">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I20">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J20">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.287232</v>
+        <v>0.4135746666666666</v>
       </c>
       <c r="N20">
-        <v>0.861696</v>
+        <v>1.240724</v>
       </c>
       <c r="O20">
-        <v>0.09277552342724733</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="P20">
-        <v>0.09277552342724732</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="Q20">
-        <v>14.258317213184</v>
+        <v>21.17088401592755</v>
       </c>
       <c r="R20">
-        <v>128.324854918656</v>
+        <v>190.537956143348</v>
       </c>
       <c r="S20">
-        <v>0.0130685858811158</v>
+        <v>0.01898289798395645</v>
       </c>
       <c r="T20">
-        <v>0.0130685858811158</v>
+        <v>0.01898289798395644</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H21">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I21">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J21">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3165206666666667</v>
+        <v>0.3493793333333333</v>
       </c>
       <c r="N21">
-        <v>0.949562</v>
+        <v>1.048138</v>
       </c>
       <c r="O21">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="P21">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="Q21">
-        <v>15.71221893752022</v>
+        <v>17.88472539475844</v>
       </c>
       <c r="R21">
-        <v>141.409970437682</v>
+        <v>160.962528552826</v>
       </c>
       <c r="S21">
-        <v>0.01440117227704908</v>
+        <v>0.01603636000198928</v>
       </c>
       <c r="T21">
-        <v>0.01440117227704908</v>
+        <v>0.01603636000198928</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H22">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I22">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J22">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.329663666666667</v>
+        <v>1.432281</v>
       </c>
       <c r="N22">
-        <v>3.988991</v>
+        <v>4.296843</v>
       </c>
       <c r="O22">
-        <v>0.4294794544381996</v>
+        <v>0.4004435514722966</v>
       </c>
       <c r="P22">
-        <v>0.4294794544381995</v>
+        <v>0.4004435514722965</v>
       </c>
       <c r="Q22">
-        <v>112.2906604273947</v>
+        <v>103.334305131697</v>
       </c>
       <c r="R22">
-        <v>1010.615943846552</v>
+        <v>930.008746185273</v>
       </c>
       <c r="S22">
-        <v>0.1029209911311069</v>
+        <v>0.09265482589589867</v>
       </c>
       <c r="T22">
-        <v>0.1029209911311069</v>
+        <v>0.09265482589589864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H23">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I23">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J23">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.005904</v>
       </c>
       <c r="O23">
-        <v>0.3236342247986024</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="P23">
-        <v>0.3236342247986023</v>
+        <v>0.2801347112623808</v>
       </c>
       <c r="Q23">
-        <v>84.61662243443199</v>
+        <v>72.28865498054932</v>
       </c>
       <c r="R23">
-        <v>761.549601909888</v>
+        <v>650.597894824944</v>
       </c>
       <c r="S23">
-        <v>0.07755610853094395</v>
+        <v>0.06481770727480278</v>
       </c>
       <c r="T23">
-        <v>0.07755610853094395</v>
+        <v>0.06481770727480277</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H24">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I24">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J24">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1606046666666666</v>
+        <v>0.3795333333333333</v>
       </c>
       <c r="N24">
-        <v>0.481814</v>
+        <v>1.1386</v>
       </c>
       <c r="O24">
-        <v>0.0518750766448675</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="P24">
-        <v>0.05187507664486749</v>
+        <v>0.1061116330539321</v>
       </c>
       <c r="Q24">
-        <v>13.56313219637866</v>
+        <v>27.38206628051111</v>
       </c>
       <c r="R24">
-        <v>122.068189767408</v>
+        <v>246.4385965246</v>
       </c>
       <c r="S24">
-        <v>0.01243140794773493</v>
+        <v>0.02455216184651621</v>
       </c>
       <c r="T24">
-        <v>0.01243140794773493</v>
+        <v>0.0245521618465162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H25">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I25">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J25">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.287232</v>
+        <v>0.4135746666666666</v>
       </c>
       <c r="N25">
-        <v>0.861696</v>
+        <v>1.240724</v>
       </c>
       <c r="O25">
-        <v>0.09277552342724733</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="P25">
-        <v>0.09277552342724732</v>
+        <v>0.1156290618384041</v>
       </c>
       <c r="Q25">
-        <v>24.256864186368</v>
+        <v>29.83803513421822</v>
       </c>
       <c r="R25">
-        <v>218.311777677312</v>
+        <v>268.542316207964</v>
       </c>
       <c r="S25">
-        <v>0.02223284193263667</v>
+        <v>0.02675430919976899</v>
       </c>
       <c r="T25">
-        <v>0.02223284193263667</v>
+        <v>0.02675430919976898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H26">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I26">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J26">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3165206666666667</v>
+        <v>0.3493793333333333</v>
       </c>
       <c r="N26">
-        <v>0.949562</v>
+        <v>1.048138</v>
       </c>
       <c r="O26">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="P26">
-        <v>0.1022357206910834</v>
+        <v>0.0976810423729864</v>
       </c>
       <c r="Q26">
-        <v>26.73030450476267</v>
+        <v>25.20655558327978</v>
       </c>
       <c r="R26">
-        <v>240.572740542864</v>
+        <v>226.859000249518</v>
       </c>
       <c r="S26">
-        <v>0.02449989538217462</v>
+        <v>0.02260148762821342</v>
       </c>
       <c r="T26">
-        <v>0.02449989538217462</v>
+        <v>0.02260148762821342</v>
       </c>
     </row>
   </sheetData>
